--- a/xlsx/tertiary-education-commission-output-type.xlsx
+++ b/xlsx/tertiary-education-commission-output-type.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -21,6 +24,9 @@
   </si>
   <si>
     <t xml:space="preserve">Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0</t>
   </si>
   <si>
     <t xml:space="preserve">Authored Book</t>
@@ -395,7 +401,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -407,141 +413,189 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
         <v>120</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
         <v>130</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5"/>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>140</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6"/>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
         <v>150</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
         <v>160</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8"/>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
         <v>170</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9"/>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
         <v>180</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10"/>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
         <v>190</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11"/>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
         <v>200</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12"/>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
         <v>210</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13"/>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
         <v>220</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14"/>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14"/>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
         <v>230</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15"/>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15"/>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
         <v>240</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16"/>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
